--- a/6.xlsx
+++ b/6.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>№      п/п</t>
   </si>
@@ -177,6 +177,57 @@
   </si>
   <si>
     <t>да</t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>е</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>п</t>
+  </si>
+  <si>
+    <t>ь</t>
+  </si>
+  <si>
+    <t>ю</t>
+  </si>
+  <si>
+    <t>р</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>ц</t>
+  </si>
+  <si>
+    <t>ш</t>
+  </si>
+  <si>
+    <t>ы</t>
   </si>
   <si>
     <t>Кроссворд "КОМПЬЮТЕР"</t>
@@ -1340,7 +1391,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1404,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1368,7 +1419,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M2" s="20" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -1384,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="O3" s="19"/>
     </row>
@@ -1392,32 +1443,52 @@
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="M4" s="18">
         <v>4</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="M5" s="18">
         <v>5</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -1426,30 +1497,48 @@
       <c r="D6" s="15">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="M6" s="18">
         <v>6</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="M7" s="18">
         <v>7</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -1461,43 +1550,67 @@
       <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="M8" s="20" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="G9" s="15">
         <v>6</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="M9" s="18">
         <v>1</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="M10" s="18">
         <v>2</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -1506,10 +1619,14 @@
       <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="N11" s="19" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
@@ -1518,18 +1635,32 @@
       <c r="C12" s="15">
         <v>7</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="str">
         <f>IF(Лист7!L14=40,"Молодец","Подумай ещё")</f>
-        <v>Подумай ещё</v>
+        <v>Молодец</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1570,7 +1701,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1591,188 +1722,188 @@
       <c r="A4" s="15"/>
       <c r="B4" s="14">
         <f>IF(Лист6!B4="д",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="14">
         <f>IF(Лист6!C4="и",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="14">
         <f>IF(Лист6!D4="с",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="14">
         <f>IF(Лист6!E4="к",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="14">
         <f>IF(Лист6!F4="е",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="14">
         <f>IF(Лист6!G4="т",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="14">
         <f>IF(Лист6!H4="а",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="14">
         <f>IF(Лист6!J4="п",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E5" s="14">
         <f>IF(Лист6!E5="о",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="14">
         <f>IF(Лист6!J5="р",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="15"/>
       <c r="E6" s="14">
         <f>IF(Лист6!E6="м",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="14">
         <f>IF(Лист6!F6="о",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="14">
         <f>IF(Лист6!G6="н",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="14">
         <f>IF(Лист6!H6="и",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="14">
         <f>IF(Лист6!I6="т",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="14">
         <f>IF(Лист6!J6="о",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="14">
         <f>IF(Лист6!K6="р",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7" s="14">
         <f>IF(Лист6!E7="п",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="14">
         <f>IF(Лист6!J7="ц",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="14">
         <f>IF(Лист6!B8="м",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="14">
         <f>IF(Лист6!C8="ы",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="14">
         <f>IF(Лист6!D8="ш",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="14">
         <f>IF(Лист6!E8="ь",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="14">
         <f>IF(Лист6!J8="е",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9" s="14">
         <f>IF(Лист6!E9="ю",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="14">
         <f>IF(Лист6!H9="д",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="14">
         <f>IF(Лист6!I9="и",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="14">
         <f>IF(Лист6!J9="с",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="14">
         <f>IF(Лист6!K9="к",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10" s="14">
         <f>IF(Лист6!E10="т",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="14">
         <f>IF(Лист6!J10="с",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E11" s="14">
         <f>IF(Лист6!E11="е",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="14">
         <f>IF(Лист6!J11="о",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="14">
         <f>IF(Лист6!D12="п",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="14">
         <f>IF(Лист6!E12="р",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="14">
         <f>IF(Лист6!F12="и",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="14">
         <f>IF(Лист6!G12="н",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="14">
         <f>IF(Лист6!H12="т",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="14">
         <f>IF(Лист6!I12="е",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="14">
         <f>IF(Лист6!J12="р",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1786,7 +1917,7 @@
       <c r="K14" s="21"/>
       <c r="L14">
         <f>SUM(B4:K12)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/6.xlsx
+++ b/6.xlsx
@@ -350,21 +350,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,14 +377,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -809,251 +809,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3">
         <f>AVERAGE(C3:D3)</f>
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="4" t="str">
         <f>IF(E3&gt;4,"Зачтено","Не зачтено")</f>
         <v>Не зачтено</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E12" si="0">AVERAGE(C4:D4)</f>
         <v>3.5</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="4" t="str">
         <f t="shared" ref="F4:F12" si="1">IF(E4&gt;4,"Зачтено","Не зачтено")</f>
         <v>Не зачтено</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F5" s="9" t="str">
+      <c r="F5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Зачтено</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F6" s="9" t="str">
+      <c r="F6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Зачтено</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F7" s="9" t="str">
+      <c r="F7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Не зачтено</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Не зачтено</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F9" s="9" t="str">
+      <c r="F9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Зачтено</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F10" s="9" t="str">
+      <c r="F10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Зачтено</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="9" t="str">
+      <c r="F11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Не зачтено</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12" s="9" t="str">
+      <c r="F12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Не зачтено</v>
       </c>
@@ -1085,27 +1085,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="3" t="str">
         <f>IF(A2="Красный","Стоим","Переходим дорогу")</f>
         <v>Стоим</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="3" t="str">
         <f>IF(A3="Красный","Стоим","Переходим дорогу")</f>
         <v>Переходим дорогу</v>
       </c>
@@ -1131,96 +1131,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="3" t="str">
         <f>IF(B2="Пасмурно","Возьми зонт","Посмотри температуру")</f>
         <v>Возьми зонт</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C8" si="0">IF(B3="Пасмурно","Возьми зонт","Посмотри температуру")</f>
         <v>Посмотри температуру</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Посмотри температуру</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Возьми зонт</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Посмотри температуру</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Возьми зонт</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Посмотри температуру</v>
       </c>
@@ -1247,16 +1247,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="8">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -1279,7 +1279,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="8">
         <v>255</v>
       </c>
       <c r="C3" t="s">
@@ -1294,7 +1294,7 @@
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>1100</v>
       </c>
       <c r="C4" t="s">
@@ -1309,7 +1309,7 @@
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>562</v>
       </c>
       <c r="C5" t="s">
@@ -1324,7 +1324,7 @@
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="8">
         <v>123</v>
       </c>
       <c r="C6" t="s">
@@ -1339,7 +1339,7 @@
       <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="8">
         <v>95.3</v>
       </c>
       <c r="C7" t="s">
@@ -1354,7 +1354,7 @@
       <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="8">
         <v>12.3</v>
       </c>
       <c r="C8" t="s">
@@ -1369,7 +1369,7 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <v>250</v>
       </c>
       <c r="C9" t="s">
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,19 +1403,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M2" s="20" t="s">
@@ -1425,144 +1425,144 @@
       <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
         <v>2</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="12">
         <v>3</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="19"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="12">
         <v>4</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="12">
         <v>5</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="12">
         <v>6</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="12">
         <v>7</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="M8" s="20" t="s">
@@ -1572,99 +1572,99 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="10">
         <v>6</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="18">
-        <v>1</v>
-      </c>
-      <c r="N9" s="19" t="s">
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="12">
         <v>2</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>7</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="str">
-        <f>IF(Лист7!L14=40,"Молодец","Подумай ещё")</f>
-        <v>Молодец</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="18" t="str">
+        <f>IF(Лист7!L14=40,"Молодец!","Подумай ещё")</f>
+        <v>Молодец!</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1700,203 +1700,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="16"/>
-      <c r="J3" s="15"/>
+      <c r="E3" s="11"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9">
         <f>IF(Лист6!B4="д",1,0)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <f>IF(Лист6!C4="и",1,0)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="9">
         <f>IF(Лист6!D4="с",1,0)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <f>IF(Лист6!E4="к",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="9">
         <f>IF(Лист6!F4="е",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="9">
         <f>IF(Лист6!G4="т",1,0)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <f>IF(Лист6!H4="а",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <f>IF(Лист6!J4="п",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <f>IF(Лист6!E5="о",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <f>IF(Лист6!J5="р",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="15"/>
-      <c r="E6" s="14">
+      <c r="D6" s="10"/>
+      <c r="E6" s="9">
         <f>IF(Лист6!E6="м",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <f>IF(Лист6!F6="о",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="9">
         <f>IF(Лист6!G6="н",1,0)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="9">
         <f>IF(Лист6!H6="и",1,0)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="9">
         <f>IF(Лист6!I6="т",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <f>IF(Лист6!J6="о",1,0)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="9">
         <f>IF(Лист6!K6="р",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <f>IF(Лист6!E7="п",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <f>IF(Лист6!J7="ц",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9">
         <f>IF(Лист6!B8="м",1,0)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <f>IF(Лист6!C8="ы",1,0)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <f>IF(Лист6!D8="ш",1,0)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <f>IF(Лист6!E8="ь",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <f>IF(Лист6!J8="е",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <f>IF(Лист6!E9="ю",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14">
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
         <f>IF(Лист6!H9="д",1,0)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="9">
         <f>IF(Лист6!I9="и",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <f>IF(Лист6!J9="с",1,0)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="9">
         <f>IF(Лист6!K9="к",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="14">
+      <c r="E10" s="9">
         <f>IF(Лист6!E10="т",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <f>IF(Лист6!J10="с",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="14">
+      <c r="E11" s="9">
         <f>IF(Лист6!E11="е",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <f>IF(Лист6!J11="о",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="15"/>
-      <c r="D12" s="14">
+      <c r="C12" s="10"/>
+      <c r="D12" s="9">
         <f>IF(Лист6!D12="п",1,0)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="9">
         <f>IF(Лист6!E12="р",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="9">
         <f>IF(Лист6!F12="и",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="9">
         <f>IF(Лист6!G12="н",1,0)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="9">
         <f>IF(Лист6!H12="т",1,0)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="9">
         <f>IF(Лист6!I12="е",1,0)</f>
         <v>1</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <f>IF(Лист6!J12="р",1,0)</f>
         <v>1</v>
       </c>
